--- a/EDA_Notes.xlsx
+++ b/EDA_Notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E497449-EFEA-4100-8FAC-0EC3AADB6C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163281F4-D891-402A-A08C-CB77A3B44CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chap-1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Steps in EDA</t>
   </si>
@@ -143,6 +143,9 @@
       </rPr>
       <t>. Horizontal bars should be used. </t>
     </r>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -742,10 +745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A335F2-CE6F-4FBB-A80D-AC96DD167817}">
-  <dimension ref="O1:P8"/>
+  <dimension ref="O1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -818,6 +821,11 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="15:16" x14ac:dyDescent="0.3">
+      <c r="P11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
